--- a/templete/取引会社請求書.xlsx
+++ b/templete/取引会社請求書.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>請　 求　 書</t>
     <rPh sb="0" eb="1">
@@ -227,36 +227,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>【フィリップス】　鼻毛・耳毛・眉毛カッター
-NT3160/10</t>
-    <rPh sb="9" eb="11">
-      <t>ハナゲ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ミミ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ケ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>マユゲ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>【ヴィダルサスーン】　マイナスイオンヘアドライヤー
-VSD-1211</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>RJ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>以下余白</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>備</t>
     <rPh sb="0" eb="1">
       <t>ソナエ</t>
@@ -290,24 +260,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>27360</t>
-  </si>
-  <si>
-    <t>5400</t>
-  </si>
-  <si>
-    <t>2280</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>108000</t>
-  </si>
-  <si>
     <t>物　　件　　：</t>
   </si>
   <si>
@@ -341,10 +293,16 @@
     <t>@@USERMAIL</t>
   </si>
   <si>
-    <t>@@AMOUNT1</t>
-  </si>
-  <si>
-    <t>@@AMOUNT2</t>
+    <t>@@QUANTITY</t>
+  </si>
+  <si>
+    <t>@@PRICE</t>
+  </si>
+  <si>
+    <t>@@PRODUCTNAME</t>
+  </si>
+  <si>
+    <t>@@AMOUNT</t>
   </si>
 </sst>
 </file>
@@ -419,7 +377,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -438,12 +396,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="26">
     <border>
@@ -760,7 +712,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -856,9 +808,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
@@ -891,18 +840,84 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -910,30 +925,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -942,56 +933,29 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1358,8 +1322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1385,12 +1349,12 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
-      <c r="G1" s="70" t="s">
+      <c r="G1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="47"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -1409,10 +1373,10 @@
       <c r="K2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="M2" s="74"/>
+      <c r="L2" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="49"/>
     </row>
     <row r="3" spans="1:27" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
@@ -1443,10 +1407,10 @@
       <c r="K4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="75" t="s">
-        <v>47</v>
-      </c>
-      <c r="M4" s="76"/>
+      <c r="L4" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="51"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
@@ -1466,7 +1430,7 @@
     <row r="6" spans="1:27" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="8" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -1504,11 +1468,11 @@
     <row r="8" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
       <c r="B8" s="7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -1529,7 +1493,7 @@
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -1546,11 +1510,11 @@
     <row r="10" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="12" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
@@ -1571,7 +1535,7 @@
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -1606,19 +1570,20 @@
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
+      <c r="E13" s="75">
+        <f>SUM(L17:L35)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
       <c r="H13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="L13" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="M13" s="5"/>
       <c r="R13" s="5"/>
@@ -1630,11 +1595,12 @@
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
+      <c r="E14" s="75">
+        <f>E13*1.08</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
       <c r="H14" s="4" t="s">
         <v>15</v>
       </c>
@@ -1659,10 +1625,10 @@
       <c r="E16" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="68" t="s">
+      <c r="F16" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="69"/>
+      <c r="G16" s="44"/>
       <c r="H16" s="30" t="s">
         <v>20</v>
       </c>
@@ -1682,294 +1648,283 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="K17" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="L17" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="M17" s="19"/>
-    </row>
-    <row r="18" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="I18" s="33"/>
-      <c r="J18" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="K18" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="L18" s="18" t="s">
-        <v>38</v>
-      </c>
+    <row r="17" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="79" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" s="80" t="s">
+        <v>43</v>
+      </c>
+      <c r="M17" s="81"/>
+      <c r="O17" s="5"/>
+    </row>
+    <row r="18" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="56"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="74"/>
       <c r="M18" s="19"/>
     </row>
-    <row r="19" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="34"/>
+    <row r="19" spans="2:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="55"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="33"/>
       <c r="K19" s="17"/>
       <c r="L19" s="18"/>
       <c r="M19" s="19"/>
     </row>
-    <row r="20" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="63"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="34"/>
+    <row r="20" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="55"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="33"/>
       <c r="K20" s="17"/>
       <c r="L20" s="18"/>
       <c r="M20" s="19"/>
     </row>
-    <row r="21" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="47"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="34"/>
+    <row r="21" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="61"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="33"/>
       <c r="K21" s="17"/>
       <c r="L21" s="18"/>
       <c r="M21" s="19"/>
     </row>
-    <row r="22" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="50"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="34"/>
+    <row r="22" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="64"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="33"/>
       <c r="K22" s="17"/>
       <c r="L22" s="18"/>
       <c r="M22" s="19"/>
     </row>
-    <row r="23" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="44"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="34"/>
+    <row r="23" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="52"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="33"/>
       <c r="K23" s="17"/>
       <c r="L23" s="18"/>
       <c r="M23" s="19"/>
     </row>
-    <row r="24" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="53"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="34"/>
+    <row r="24" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="56"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="33"/>
       <c r="K24" s="17"/>
       <c r="L24" s="18"/>
       <c r="M24" s="19"/>
     </row>
-    <row r="25" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="44"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="34"/>
+    <row r="25" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="52"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="33"/>
       <c r="K25" s="17"/>
       <c r="L25" s="18"/>
       <c r="M25" s="19"/>
     </row>
-    <row r="26" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="44"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="34"/>
+    <row r="26" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="52"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="33"/>
       <c r="K26" s="17"/>
       <c r="L26" s="18"/>
       <c r="M26" s="19"/>
     </row>
-    <row r="27" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="47"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="34"/>
+    <row r="27" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="61"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="33"/>
       <c r="K27" s="17"/>
       <c r="L27" s="20"/>
       <c r="M27" s="19"/>
     </row>
-    <row r="28" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="44"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="34"/>
+    <row r="28" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="52"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="33"/>
       <c r="K28" s="17"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
     </row>
-    <row r="29" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="47"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="34"/>
+    <row r="29" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="61"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="33"/>
       <c r="K29" s="21"/>
       <c r="L29" s="20"/>
       <c r="M29" s="19"/>
     </row>
-    <row r="30" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="50"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="34"/>
+    <row r="30" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="64"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="33"/>
       <c r="K30" s="17"/>
       <c r="L30" s="18"/>
       <c r="M30" s="19"/>
     </row>
-    <row r="31" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="53"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="34"/>
+    <row r="31" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="56"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="33"/>
       <c r="K31" s="17"/>
       <c r="L31" s="18"/>
       <c r="M31" s="19"/>
     </row>
-    <row r="32" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="47"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="34"/>
+    <row r="32" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="61"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="33"/>
       <c r="K32" s="17"/>
       <c r="L32" s="18"/>
       <c r="M32" s="19"/>
     </row>
     <row r="33" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="47"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="34"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="33"/>
       <c r="K33" s="17"/>
       <c r="L33" s="18"/>
       <c r="M33" s="19"/>
     </row>
     <row r="34" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="58"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="34"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="33"/>
       <c r="K34" s="17"/>
       <c r="L34" s="18"/>
       <c r="M34" s="19"/>
     </row>
     <row r="35" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="44"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="34"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="33"/>
       <c r="K35" s="17"/>
       <c r="L35" s="18"/>
       <c r="M35" s="19"/>
     </row>
     <row r="36" spans="2:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="39"/>
+      <c r="B36" s="38"/>
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
@@ -1983,7 +1938,7 @@
       <c r="M36" s="23"/>
     </row>
     <row r="37" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="40"/>
+      <c r="B37" s="39"/>
       <c r="C37" s="24"/>
       <c r="D37" s="24"/>
       <c r="E37" s="24"/>
@@ -1997,8 +1952,8 @@
       <c r="M37" s="25"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B38" s="41" t="s">
-        <v>30</v>
+      <c r="B38" s="40" t="s">
+        <v>26</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
@@ -2013,7 +1968,7 @@
       <c r="M38" s="26"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B39" s="41"/>
+      <c r="B39" s="40"/>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
@@ -2027,7 +1982,7 @@
       <c r="M39" s="26"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B40" s="42"/>
+      <c r="B40" s="41"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
@@ -2041,8 +1996,8 @@
       <c r="M40" s="26"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B41" s="41" t="s">
-        <v>31</v>
+      <c r="B41" s="40" t="s">
+        <v>27</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
@@ -2057,7 +2012,7 @@
       <c r="M41" s="26"/>
     </row>
     <row r="42" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="43"/>
+      <c r="B42" s="42"/>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
@@ -2067,19 +2022,20 @@
       <c r="I42" s="13"/>
       <c r="J42" s="13"/>
       <c r="K42" s="13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L42" s="13"/>
       <c r="M42" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
     <mergeCell ref="B28:G28"/>
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="B18:G18"/>
@@ -2092,13 +2048,12 @@
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="B26:G26"/>
     <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
